--- a/readLite.xlsx
+++ b/readLite.xlsx
@@ -52,9 +52,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,9 +358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -371,93 +372,153 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>54.279999829530702</v>
+      <c r="A2">
+        <v>21.31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>174.51999974250799</v>
+      <c r="A3">
+        <v>89.59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>983.400001093745</v>
+      <c r="A4">
+        <v>9.35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3546.5599960088698</v>
+      <c r="A5">
+        <v>68.040000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>7.7000001072883597</v>
+      <c r="A6">
+        <v>82.91</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5.93999996781349</v>
+      <c r="A7">
+        <v>1767.45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1.0099999904632599</v>
+      <c r="A8">
+        <v>5.38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>72.879999369382901</v>
+      <c r="A9">
+        <v>660.56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44.199999183416402</v>
+      <c r="A10">
+        <v>20.059999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>14.0499998307228</v>
+      <c r="A11">
+        <v>0.27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>6.1100000292062804</v>
+      <c r="A12">
+        <v>3.42</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>336.31000149250002</v>
+      <c r="A13">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>91.319999486208005</v>
+      <c r="A14">
+        <v>7.75</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>249.15000149607701</v>
+      <c r="A15">
+        <v>4.07</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1.66999995708466</v>
+      <c r="A16">
+        <v>42.32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>640.05000294446995</v>
+      <c r="A17">
+        <v>97.05</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>4.4099999964237204</v>
+      <c r="A18">
+        <v>70.17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1.54999995231628</v>
+      <c r="A19">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>272.08999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>104.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>213.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>217.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>19.239999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/readLite.xlsx
+++ b/readLite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -358,167 +358,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>21.31</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>89.59</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>68.040000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>82.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1767.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>660.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20.059999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>42.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>97.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>70.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>272.08999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11.37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>66.61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>17.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>104.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>213.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>217.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>19.239999999999998</v>
+        <v>69.91</v>
       </c>
     </row>
   </sheetData>

--- a/readLite.xlsx
+++ b/readLite.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$A$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -373,20 +376,26 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>82</v>
+        <v>29.73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>159</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>69.91</v>
+        <v>41.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>32.020000000000003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/readLite.xlsx
+++ b/readLite.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742A5657-DE6E-49B5-B474-5C455740EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,6 +165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -185,6 +217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -375,27 +424,2292 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>29.73</v>
+      <c r="A2" s="1">
+        <v>41.91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>11.12</v>
+      <c r="A3" s="1">
+        <v>76.279999999999973</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>41.19</v>
+      <c r="A4" s="1">
+        <v>40.18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>32.020000000000003</v>
+      <c r="A5" s="1">
+        <v>30.45000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>49.180000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>305.97000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>119.61000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>35.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>163.57000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>167.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>223.85999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>407.58000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>103.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>81.639999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>91.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>260.09000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>148.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>107.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>198.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>520.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>510.03999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>139.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>548.08000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>70.510000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>107.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>109.36999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>472.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>139.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>307.22000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>171.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>70.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>506.12999999999988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>127.00999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>201.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>139.16999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>70.52000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>13.620000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>72.820000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>35.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>31.480000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>56.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>37.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>80.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>31.360000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44.77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>108.36000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>92.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>65.080000000000013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>29.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>28.919999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>159.94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>34.139999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>309.70999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>47.010000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>149.84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>148.63999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>286.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>138.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>80.539999999999992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>67.290000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>24.830000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>244.39000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>401.31000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>48.55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>99.000000000000014</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>64.860000000000014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>102.23999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>92.179999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>218.52999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>63.06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>139.62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>70.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>55.650000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>95.99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>71.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>114.81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>12.450000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>103.42000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>69.680000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>126.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>185.59999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45.480000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>60.100000000000065</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>8.5700000000000038</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>3.0799999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>398.25000000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>597.1099999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>297.84000000000009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>392.00999999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>292.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>975.52999999999986</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>394.65000000000009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>554.8900000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>829.55000000000018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>222.52999999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>509.40000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>71.300000000000011</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>459.71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>172.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>112.69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>826.06</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>257.82999999999993</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>193.17999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>393.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>627.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>88.54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>378.76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>150.09</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>204.00000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>63.609999999999992</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>248.77999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>303.33999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>640.99000000000012</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>631.59999999999991</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>645.65999999999985</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>197.50000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>377.22999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>58.08</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>95.52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>1017.82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>520.96999999999991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>196.82999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>729.00999999999954</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>484.46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>805.58999999999958</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>159.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>252.49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>697.77</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>676.78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>87.34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>56.38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>100.00999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>125.15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>92.22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>280.34999999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>1755.8300000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>226.23000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>892.17000000000053</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>201.34000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>232.54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>459.1699999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>568.78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>589.48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>124.58999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>952.06000000000006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>245.53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>126.33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>66.16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>158.58999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>271.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>2199.9700000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>2627.5900000000015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>2162.6399999999994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>1422.9199999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>4036.19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>2744.809999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>7240.2500000000045</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>1068.1499999999994</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>1680.59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>4199.1900000000014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>2992.6099999999983</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>3867.82</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>3703.9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>3003.2800000000016</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>4087.8000000000015</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>3985.3600000000024</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>2072.9799999999991</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>2150.0499999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>5793.5699999999979</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>2068.9100000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>5634.5699999999979</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>4360.5899999999983</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>1741.86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>5813.8300000000017</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>8983.5500000000029</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>5114.7700000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>1504.1600000000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>4108.4800000000032</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>2967.6600000000008</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>4013.099999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>615.8900000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>5338.899999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>4129.8899999999985</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>4123.4299999999985</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>5127.3399999999983</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>4375.9400000000005</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>2202.94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>4741.4800000000014</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>2393.5700000000006</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>6491.1100000000015</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>3362.9799999999964</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>2074.5600000000013</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>3304.0600000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>2200.4099999999989</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>1126.1599999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>4617.6200000000026</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>3243.7100000000014</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>4506.7799999999988</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>2607.4900000000016</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>1278.9000000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>4938.1000000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>2550.6299999999987</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>1021.3700000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>1100.5500000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>412.66999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>421.04000000000008</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>293.89</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>1021.52</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>1189.47</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>495.94</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>5522.34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>3044.3899999999985</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>2530.15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>4104.5199999999995</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>3943.0300000000011</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>4153.7199999999966</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>6519.2099999999991</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>5987.38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>863.28999999999985</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>706.48000000000013</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>432.93000000000006</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>150.94999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>1333.2000000000007</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>2643.9860000000017</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>1054.0999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>2172.7799999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>3864.56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>1905.7599999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>1195.7300000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>2331.6699999999987</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>1591.5300000000007</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>2804.6699999999987</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>1240.8500000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>473.09000000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>291.49999999999994</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>1646.72</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>2074.5100000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>1600.1399999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>1037.4600000000003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>1882.9799999999993</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>1067.7599999999995</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>1448.0600000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>129.32</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>841.74999999999989</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>994.00999999999988</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>1514.76</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>1619.3199999999997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>845.37999999999988</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>272.23</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>482.78999999999996</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>1178.1899999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>310.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>307.29000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>2009.29</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>652.02000000000021</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>2514.1399999999994</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>865.47999999999979</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>666.49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>1201.6900000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>284.20000000000005</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>286.95</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>190.70999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>373.92999999999995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>157.15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>348.07</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>2145.9300000000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>691.96</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>767.87000000000023</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>347.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>1288.8100000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>1200.0189999999996</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>2211.8409999999976</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>1073.7599999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>949.20000000000016</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>2470.58</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>1167.8299999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>620.63</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>286.93999999999994</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>1706.7700000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>1125.8409999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>914.43</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>739.75999999999965</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>111.05</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>126.39000000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>363.53000000000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>158.57000000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>244.28999999999996</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>104.23</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>494.98900000000003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>826.81000000000017</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>1256.6500000000008</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>102.02000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>103.75999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>595.17300000000034</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>166.43</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>238.12999999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>347.63999999999993</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>130.71</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>262.02499999999992</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>51.73</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>162.05000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>250.89999999999995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>193.73999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>160.95000000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>142.88999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>121.79</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>444.03999999999996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>117.05999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>125.76999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>111.49</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>70.52000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>285.2999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>600.26</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <v>181.97000000000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>303.14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>734.72999999999979</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>207.43000000000004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>107.79999999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>121.14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>429.38999999999993</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>67.13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>396.19999999999993</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>18.599999999999998</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>76.539999999999992</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>137.24</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>29.402000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>39.584999999999987</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>43.656000000000013</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>115.86900000000004</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>170.43600000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>114.46399999999996</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>55.332000000000008</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>84.141000000000005</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>48.852999999999994</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>81.897000000000006</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>37.537999999999997</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>29.072999999999993</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>34.976000000000006</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>96.825000000000003</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>26.352000000000004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>456.69300000000004</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>161.26400000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>227.245</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>2.4650000000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>127.55899999999998</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>78.300000000000011</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>55.822999999999993</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>78.185999999999993</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>29.419</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>41.119</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>48.35499999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>11.920999999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>60.006</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>5.9850000000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>39.160000000000011</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>88.227000000000004</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
+        <v>38.122999999999998</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <v>19.212000000000003</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" s="1">
+        <v>44.59</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
+        <v>156.84099999999987</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <v>39.989999999999995</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>27.869999999999997</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <v>16.540000000000003</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" s="1">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" s="1">
+        <v>51.09</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" s="1">
+        <v>167.036</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" s="1">
+        <v>264.88300000000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" s="1">
+        <v>80.149000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" s="1">
+        <v>243.78200000000007</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" s="1">
+        <v>164.703</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" s="1">
+        <v>46.587000000000003</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" s="1">
+        <v>187.39600000000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" s="1">
+        <v>2285.6440000000002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" s="1">
+        <v>199.27899999999991</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" s="1">
+        <v>143.934</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" s="1">
+        <v>292.17600000000004</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" s="1">
+        <v>13.501000000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" s="1">
+        <v>279.20299999999997</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" s="1">
+        <v>127.67099999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" s="1">
+        <v>74.611999999999995</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" s="1">
+        <v>44.093000000000004</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" s="1">
+        <v>96.126000000000005</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" s="1">
+        <v>251.73099999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" s="1">
+        <v>17.849000000000004</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" s="1">
+        <v>317.03800000000007</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" s="1">
+        <v>27.509999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" s="1">
+        <v>25.11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" s="1">
+        <v>108.78</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" s="1">
+        <v>96.78</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" s="1">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" s="1">
+        <v>14.290000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" s="1">
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" s="1">
+        <v>23.98</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" s="1">
+        <v>40.03</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" s="1">
+        <v>1.5760000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" s="1">
+        <v>4.1920000000000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" s="1">
+        <v>36.712000000000003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" s="1">
+        <v>11.045999999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" s="1">
+        <v>10.495000000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" s="1">
+        <v>19.853000000000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" s="1">
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" s="1">
+        <v>47.402999999999992</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" s="1">
+        <v>47.699999999999996</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" s="1">
+        <v>43.143999999999998</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" s="1">
+        <v>40.479999999999997</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" s="1">
+        <v>3.9299999999999997</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" s="1">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" s="1">
+        <v>29.065000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" s="1">
+        <v>19.688000000000002</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" s="1">
+        <v>25.256999999999998</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" s="1">
+        <v>8.8729999999999993</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" s="1">
+        <v>95.304000000000016</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" s="1">
+        <v>119.93700000000003</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" s="1">
+        <v>25.943999999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" s="1">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" s="1">
+        <v>52.45</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" s="1">
+        <v>0.42199999999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1"/>
+  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>